--- a/Database.xlsx
+++ b/Database.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\timeprj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\timeprj\FinaleAppUtility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B310ED86-30FC-4AC8-A9C5-039FE3539D21}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1671217A-9B79-4FEB-8218-4C72EE1FFCB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18810" windowHeight="7815" xr2:uid="{B0A45C6F-56E0-4F19-B47E-1E7325CF1885}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DataTable" sheetId="1" r:id="rId1"/>
+    <sheet name="InfoData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,16 +26,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>dsad</t>
   </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Hellox</t>
+  </si>
+  <si>
+    <t>Project Configuration</t>
+  </si>
+  <si>
+    <t>Entry Number</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,13 +55,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -60,13 +85,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -379,15 +407,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD98BA0-3910-40DA-BA65-7A2A667B3001}">
-  <dimension ref="J6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
         <v>0</v>
       </c>
@@ -395,4 +431,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA470B6-DCE0-4ACC-8491-A9C37923BAEE}">
+  <dimension ref="B1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>